--- a/data/manual_overlay.xlsx
+++ b/data/manual_overlay.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,41 +423,49 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1638198095525</v>
+        <v>1638261193009</v>
       </c>
       <c r="B1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1638198120495</v>
+        <v>1638261193623</v>
       </c>
       <c r="B2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1638198127086</v>
+        <v>1638261194331</v>
       </c>
       <c r="B3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1638198128467</v>
+        <v>1638261208855</v>
       </c>
       <c r="B4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1638198343000</v>
+        <v>1638261221415</v>
       </c>
       <c r="B5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1638261235145</v>
+      </c>
+      <c r="B6" t="b">
         <v>1</v>
       </c>
     </row>
